--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8550"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>М1 150 180 1800</t>
   </si>
@@ -34,9 +33,6 @@
   </si>
   <si>
     <t>М3 260 90 1200</t>
-  </si>
-  <si>
-    <t>920063.38</t>
   </si>
 </sst>
 </file>
@@ -367,225 +363,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>3040</v>
-      </c>
-      <c r="E1">
-        <v>101.85</v>
-      </c>
-      <c r="F1">
-        <v>84.2</v>
-      </c>
-      <c r="G1">
-        <f>B1-E1</f>
-        <v>-101.85</v>
-      </c>
-      <c r="H1">
-        <f>C1-F1</f>
-        <v>-84.2</v>
-      </c>
-      <c r="I1">
-        <f>G1*G1</f>
-        <v>10373.422499999999</v>
-      </c>
-      <c r="J1">
-        <f>H1*H1</f>
-        <v>7089.64</v>
-      </c>
-      <c r="K1">
-        <f>I1+J1</f>
-        <v>17463.0625</v>
-      </c>
-      <c r="L1">
-        <f>SQRT(K1)</f>
-        <v>132.14788117862503</v>
-      </c>
-      <c r="M1">
-        <f>D1*L1</f>
-        <v>401729.55878302007</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>150</v>
-      </c>
-      <c r="C2">
-        <v>180</v>
-      </c>
-      <c r="D2">
-        <v>1800</v>
-      </c>
-      <c r="E2">
-        <v>101.85</v>
-      </c>
-      <c r="F2">
-        <v>84.2</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:H4" si="0">B2-E2</f>
-        <v>48.150000000000006</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>95.8</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:J4" si="1">G2*G2</f>
-        <v>2318.4225000000006</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="1"/>
-        <v>9177.64</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K4" si="2">I2+J2</f>
-        <v>11496.0625</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ref="L2:L4" si="3">SQRT(K2)</f>
-        <v>107.21969268749095</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M4" si="4">D2*L2</f>
-        <v>192995.4468374837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>240</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>800</v>
-      </c>
-      <c r="E3">
-        <v>101.85</v>
-      </c>
-      <c r="F3">
-        <v>84.2</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>138.15</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>115.8</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>19085.422500000001</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="1"/>
-        <v>13409.64</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="2"/>
-        <v>32495.0625</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="3"/>
-        <v>180.26386909195088</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="4"/>
-        <v>144211.0952735607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>260</v>
-      </c>
-      <c r="C4">
-        <v>90</v>
-      </c>
-      <c r="D4">
-        <v>1200</v>
-      </c>
-      <c r="E4">
-        <v>101.85</v>
-      </c>
-      <c r="F4">
-        <v>84.2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>158.15</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>5.7999999999999972</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>25011.422500000001</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>33.639999999999965</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
-        <v>25045.0625</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="3"/>
-        <v>158.2563189891639</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="4"/>
-        <v>189907.58278699667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="M5">
-        <f>SUM(M1:M4)</f>
-        <v>928843.68368106126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="M7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
